--- a/demos/example_A/results/final_results.xlsx
+++ b/demos/example_A/results/final_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>label</t>
   </si>
@@ -22,10 +22,10 @@
     <t>area</t>
   </si>
   <si>
-    <t>eccentricity</t>
+    <t>convex_area</t>
   </si>
   <si>
-    <t>convex_area</t>
+    <t>eccentricity</t>
   </si>
   <si>
     <t>equivalent_diameter</t>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>minor_axis_length</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>perimeter</t>
   </si>
   <si>
     <t>solidity</t>
@@ -398,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +438,14 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,10 +456,10 @@
         <v>2522</v>
       </c>
       <c r="D2">
-        <v>0.5753646217665286</v>
+        <v>2871</v>
       </c>
       <c r="E2">
-        <v>2870</v>
+        <v>0.5751988887554831</v>
       </c>
       <c r="F2">
         <v>56.66665802588044</v>
@@ -456,16 +468,22 @@
         <v>0.5473090277777778</v>
       </c>
       <c r="H2">
-        <v>66.94023997670338</v>
+        <v>66.94213261948823</v>
       </c>
       <c r="I2">
-        <v>54.75022347820894</v>
+        <v>54.75957442885583</v>
       </c>
       <c r="J2">
-        <v>0.8787456445993032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>1.531119487952661</v>
+      </c>
+      <c r="K2">
+        <v>223.9655121145938</v>
+      </c>
+      <c r="L2">
+        <v>0.8784395680947406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -476,10 +494,10 @@
         <v>2149</v>
       </c>
       <c r="D3">
-        <v>0.7064891419513062</v>
+        <v>2232</v>
       </c>
       <c r="E3">
-        <v>2231</v>
+        <v>0.7090938695281206</v>
       </c>
       <c r="F3">
         <v>52.30862052889432</v>
@@ -488,16 +506,22 @@
         <v>0.7620567375886524</v>
       </c>
       <c r="H3">
-        <v>62.91635026309223</v>
+        <v>63.0467258216436</v>
       </c>
       <c r="I3">
-        <v>44.52740361176314</v>
+        <v>44.4551348966022</v>
       </c>
       <c r="J3">
-        <v>0.9632451815329449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0.3222494455224031</v>
+      </c>
+      <c r="K3">
+        <v>183.1959594928933</v>
+      </c>
+      <c r="L3">
+        <v>0.9628136200716846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -508,10 +532,10 @@
         <v>2012</v>
       </c>
       <c r="D4">
+        <v>2083</v>
+      </c>
+      <c r="E4">
         <v>0.6000950665281278</v>
-      </c>
-      <c r="E4">
-        <v>2083</v>
       </c>
       <c r="F4">
         <v>50.61381198849922</v>
@@ -526,10 +550,16 @@
         <v>45.83255536746273</v>
       </c>
       <c r="J4">
+        <v>0.91699411146955</v>
+      </c>
+      <c r="K4">
+        <v>174.5685424949238</v>
+      </c>
+      <c r="L4">
         <v>0.9659145463274124</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -540,10 +570,10 @@
         <v>3310</v>
       </c>
       <c r="D5">
-        <v>0.5691053943695813</v>
+        <v>3397</v>
       </c>
       <c r="E5">
-        <v>3398</v>
+        <v>0.5721763122685121</v>
       </c>
       <c r="F5">
         <v>64.91858665338755</v>
@@ -552,16 +582,22 @@
         <v>0.7084760273972602</v>
       </c>
       <c r="H5">
-        <v>72.41521402887308</v>
+        <v>72.51044382715462</v>
       </c>
       <c r="I5">
-        <v>59.5444660148033</v>
+        <v>59.46803674738534</v>
       </c>
       <c r="J5">
-        <v>0.974102413184226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.4451033089482093</v>
+      </c>
+      <c r="K5">
+        <v>226.0660171779821</v>
+      </c>
+      <c r="L5">
+        <v>0.9743891669119812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -569,31 +605,37 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="D6">
-        <v>0.6148788432660138</v>
+        <v>2367</v>
       </c>
       <c r="E6">
-        <v>2374</v>
+        <v>0.6173149938234533</v>
       </c>
       <c r="F6">
-        <v>53.92660864707803</v>
+        <v>53.90299287688617</v>
       </c>
       <c r="G6">
-        <v>0.6529445397369925</v>
+        <v>0.6523727844482562</v>
       </c>
       <c r="H6">
-        <v>61.37340259752747</v>
+        <v>61.42099558583627</v>
       </c>
       <c r="I6">
-        <v>48.4003901802338</v>
+        <v>48.32088518420938</v>
       </c>
       <c r="J6">
-        <v>0.962089300758214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-0.3140180066076961</v>
+      </c>
+      <c r="K6">
+        <v>189.7228714274745</v>
+      </c>
+      <c r="L6">
+        <v>0.9640895648500212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -601,31 +643,37 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3920</v>
+        <v>3923</v>
       </c>
       <c r="D7">
-        <v>0.5850542899583508</v>
+        <v>4057</v>
       </c>
       <c r="E7">
-        <v>4054</v>
+        <v>0.5841377201549525</v>
       </c>
       <c r="F7">
-        <v>70.64771061656448</v>
+        <v>70.67473900904088</v>
       </c>
       <c r="G7">
-        <v>0.7191341038341589</v>
+        <v>0.719684461566685</v>
       </c>
       <c r="H7">
-        <v>79.20382356308139</v>
+        <v>79.19780820969136</v>
       </c>
       <c r="I7">
-        <v>64.23383592983586</v>
+        <v>64.28126213263303</v>
       </c>
       <c r="J7">
-        <v>0.9669462259496794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>-1.345476477474141</v>
+      </c>
+      <c r="K7">
+        <v>245.7228714274745</v>
+      </c>
+      <c r="L7">
+        <v>0.966970667981267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -633,31 +681,37 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="D8">
-        <v>0.4995152519742727</v>
+        <v>2688</v>
       </c>
       <c r="E8">
-        <v>2679</v>
+        <v>0.5025206624984642</v>
       </c>
       <c r="F8">
-        <v>56.71157809478608</v>
+        <v>56.73402479192263</v>
       </c>
       <c r="G8">
-        <v>0.6180572547100562</v>
+        <v>0.6185466112062638</v>
       </c>
       <c r="H8">
-        <v>63.08924564963399</v>
+        <v>63.19581943466947</v>
       </c>
       <c r="I8">
-        <v>54.65453477929093</v>
+        <v>54.63690622159122</v>
       </c>
       <c r="J8">
-        <v>0.9428891377379619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>1.169403909529855</v>
+      </c>
+      <c r="K8">
+        <v>208.3086578651014</v>
+      </c>
+      <c r="L8">
+        <v>0.9404761904761905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -665,31 +719,37 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3169</v>
+        <v>2293</v>
       </c>
       <c r="D9">
-        <v>0.5504082260666388</v>
+        <v>2486</v>
       </c>
       <c r="E9">
-        <v>3527</v>
+        <v>0.6965981957165989</v>
       </c>
       <c r="F9">
-        <v>63.52083215186755</v>
+        <v>54.03275188325807</v>
       </c>
       <c r="G9">
-        <v>0.6569237147595357</v>
+        <v>0.6244553376906318</v>
       </c>
       <c r="H9">
-        <v>72.13780432231647</v>
+        <v>65.90225903078866</v>
       </c>
       <c r="I9">
-        <v>60.22754068341361</v>
+        <v>47.28233130940561</v>
       </c>
       <c r="J9">
-        <v>0.89849730649277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0.4021695635572166</v>
+      </c>
+      <c r="K9">
+        <v>200.4091629284898</v>
+      </c>
+      <c r="L9">
+        <v>0.9223652453740949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -697,31 +757,37 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2297</v>
+        <v>2363</v>
       </c>
       <c r="D10">
-        <v>0.6955021226628348</v>
+        <v>2467</v>
       </c>
       <c r="E10">
-        <v>2497</v>
+        <v>0.4297115208131049</v>
       </c>
       <c r="F10">
-        <v>54.07985978399601</v>
+        <v>54.85129938487501</v>
       </c>
       <c r="G10">
-        <v>0.6255446623093682</v>
+        <v>0.729320987654321</v>
       </c>
       <c r="H10">
-        <v>65.89034634794885</v>
+        <v>58.79254492015487</v>
       </c>
       <c r="I10">
-        <v>47.34379791515616</v>
+        <v>53.08768252015932</v>
       </c>
       <c r="J10">
-        <v>0.9199038846615939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0.9479700804189669</v>
+      </c>
+      <c r="K10">
+        <v>191.4386001800126</v>
+      </c>
+      <c r="L10">
+        <v>0.9578435346574787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -729,31 +795,37 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2365</v>
+        <v>2656</v>
       </c>
       <c r="D11">
-        <v>0.4310734201652652</v>
+        <v>2742</v>
       </c>
       <c r="E11">
-        <v>2468</v>
+        <v>0.8199068952612001</v>
       </c>
       <c r="F11">
-        <v>54.87450704378728</v>
+        <v>58.15259436015381</v>
       </c>
       <c r="G11">
-        <v>0.7299382716049383</v>
+        <v>0.7037625861155273</v>
       </c>
       <c r="H11">
-        <v>58.84077751587419</v>
+        <v>78.16320626232637</v>
       </c>
       <c r="I11">
-        <v>53.09302530115992</v>
+        <v>44.7481920909866</v>
       </c>
       <c r="J11">
-        <v>0.9582658022690438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>1.161885095635947</v>
+      </c>
+      <c r="K11">
+        <v>212.0243866176395</v>
+      </c>
+      <c r="L11">
+        <v>0.9686360320933625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -761,31 +833,37 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>2655</v>
+        <v>1967</v>
       </c>
       <c r="D12">
-        <v>0.8201467255247724</v>
+        <v>2040</v>
       </c>
       <c r="E12">
-        <v>2737</v>
+        <v>0.8438891686087612</v>
       </c>
       <c r="F12">
-        <v>58.14164592847245</v>
+        <v>50.04460195159979</v>
       </c>
       <c r="G12">
-        <v>0.7034976152623211</v>
+        <v>0.5652298850574713</v>
       </c>
       <c r="H12">
-        <v>78.17274497601214</v>
+        <v>69.01371676712374</v>
       </c>
       <c r="I12">
-        <v>44.72679058621689</v>
+        <v>37.0270695704117</v>
       </c>
       <c r="J12">
-        <v>0.9700401899890391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.6947158230665497</v>
+      </c>
+      <c r="K12">
+        <v>183.9655121145938</v>
+      </c>
+      <c r="L12">
+        <v>0.9642156862745098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -793,31 +871,37 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1965</v>
+        <v>3363</v>
       </c>
       <c r="D13">
-        <v>0.8435047464271832</v>
+        <v>3597</v>
       </c>
       <c r="E13">
-        <v>2038</v>
+        <v>0.7534339769945388</v>
       </c>
       <c r="F13">
-        <v>50.01915338552418</v>
+        <v>65.4362635619146</v>
       </c>
       <c r="G13">
-        <v>0.5646551724137931</v>
+        <v>0.6369318181818182</v>
       </c>
       <c r="H13">
-        <v>68.95140156960005</v>
+        <v>82.66619326584728</v>
       </c>
       <c r="I13">
-        <v>37.03529544977638</v>
+        <v>54.35497033874907</v>
       </c>
       <c r="J13">
-        <v>0.964180569185476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>-1.292328591273625</v>
+      </c>
+      <c r="K13">
+        <v>239.3797256769669</v>
+      </c>
+      <c r="L13">
+        <v>0.9349457881567973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -825,31 +909,37 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>3363</v>
+        <v>1830</v>
       </c>
       <c r="D14">
-        <v>0.7522775808399393</v>
+        <v>1900</v>
       </c>
       <c r="E14">
-        <v>3597</v>
+        <v>0.610223960370203</v>
       </c>
       <c r="F14">
-        <v>65.4362635619146</v>
+        <v>48.27036737860349</v>
       </c>
       <c r="G14">
-        <v>0.6369318181818182</v>
+        <v>0.6742815033161386</v>
       </c>
       <c r="H14">
-        <v>82.57619903254074</v>
+        <v>55.47486856474136</v>
       </c>
       <c r="I14">
-        <v>54.40502284607651</v>
+        <v>43.94879718855984</v>
       </c>
       <c r="J14">
-        <v>0.9349457881567973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>-1.395679945550208</v>
+      </c>
+      <c r="K14">
+        <v>169.095454429505</v>
+      </c>
+      <c r="L14">
+        <v>0.9631578947368421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -857,31 +947,37 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1824</v>
+        <v>3429</v>
       </c>
       <c r="D15">
-        <v>0.6071918976515397</v>
+        <v>3600</v>
       </c>
       <c r="E15">
-        <v>1895</v>
+        <v>0.398960658595984</v>
       </c>
       <c r="F15">
-        <v>48.19117066016281</v>
+        <v>66.07524800480792</v>
       </c>
       <c r="G15">
-        <v>0.6720707442888725</v>
+        <v>0.643581081081081</v>
       </c>
       <c r="H15">
-        <v>55.30436244759411</v>
+        <v>70.13066670608457</v>
       </c>
       <c r="I15">
-        <v>43.94236993404979</v>
+        <v>64.30758024236395</v>
       </c>
       <c r="J15">
-        <v>0.9625329815303431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>-0.7592362212066333</v>
+      </c>
+      <c r="K15">
+        <v>238.9360748630709</v>
+      </c>
+      <c r="L15">
+        <v>0.9525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -889,31 +985,37 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>2615</v>
+        <v>2856</v>
       </c>
       <c r="D16">
-        <v>0.847797274945113</v>
+        <v>3077</v>
       </c>
       <c r="E16">
-        <v>2890</v>
+        <v>0.8802299724638306</v>
       </c>
       <c r="F16">
-        <v>57.7020052466329</v>
+        <v>60.30233942197952</v>
       </c>
       <c r="G16">
-        <v>0.6116959064327485</v>
+        <v>0.6276923076923077</v>
       </c>
       <c r="H16">
-        <v>80.87084676778836</v>
+        <v>90.05838404706965</v>
       </c>
       <c r="I16">
-        <v>42.88746391896412</v>
+        <v>42.7369682714171</v>
       </c>
       <c r="J16">
-        <v>0.9048442906574394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0.248882814774847</v>
+      </c>
+      <c r="K16">
+        <v>238.9949493661166</v>
+      </c>
+      <c r="L16">
+        <v>0.9281767955801105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -921,31 +1023,37 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>3430</v>
+        <v>3507</v>
       </c>
       <c r="D17">
-        <v>0.3981381791358234</v>
+        <v>3900</v>
       </c>
       <c r="E17">
-        <v>3600</v>
+        <v>0.8410400591269611</v>
       </c>
       <c r="F17">
-        <v>66.08488207178408</v>
+        <v>66.82253424845706</v>
       </c>
       <c r="G17">
-        <v>0.6437687687687688</v>
+        <v>0.5320084951456311</v>
       </c>
       <c r="H17">
-        <v>70.12306012822557</v>
+        <v>97.38943473053027</v>
       </c>
       <c r="I17">
-        <v>64.32566803519119</v>
+        <v>52.6850395715848</v>
       </c>
       <c r="J17">
-        <v>0.9527777777777777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>-1.492785088330557</v>
+      </c>
+      <c r="K17">
+        <v>271.4213562373095</v>
+      </c>
+      <c r="L17">
+        <v>0.8992307692307693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -953,31 +1061,37 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>2860</v>
+        <v>3755</v>
       </c>
       <c r="D18">
-        <v>0.880296395417091</v>
+        <v>4127</v>
       </c>
       <c r="E18">
-        <v>3083</v>
+        <v>0.8041003895162659</v>
       </c>
       <c r="F18">
-        <v>60.34455317543221</v>
+        <v>69.14488043579608</v>
       </c>
       <c r="G18">
-        <v>0.6285714285714286</v>
+        <v>0.5591958302308265</v>
       </c>
       <c r="H18">
-        <v>90.17194757257305</v>
+        <v>95.67468025925017</v>
       </c>
       <c r="I18">
-        <v>42.77974788105445</v>
+        <v>56.87797891135349</v>
       </c>
       <c r="J18">
-        <v>0.9276678559844308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0.7009139979018458</v>
+      </c>
+      <c r="K18">
+        <v>272.350288425444</v>
+      </c>
+      <c r="L18">
+        <v>0.9098618851465956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -985,31 +1099,37 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>3507</v>
+        <v>2660</v>
       </c>
       <c r="D19">
-        <v>0.8410400591269611</v>
+        <v>2737</v>
       </c>
       <c r="E19">
-        <v>3900</v>
+        <v>0.5153898328632318</v>
       </c>
       <c r="F19">
-        <v>66.82253424845706</v>
+        <v>58.19636748969418</v>
       </c>
       <c r="G19">
-        <v>0.5320084951456311</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="H19">
-        <v>97.38943473053027</v>
+        <v>63.41371105289132</v>
       </c>
       <c r="I19">
-        <v>52.6850395715848</v>
+        <v>54.34275033627358</v>
       </c>
       <c r="J19">
-        <v>0.8992307692307693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0.4184956194446897</v>
+      </c>
+      <c r="K19">
+        <v>201.7228714274745</v>
+      </c>
+      <c r="L19">
+        <v>0.9718670076726342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1017,31 +1137,37 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>1777</v>
+        <v>1515</v>
       </c>
       <c r="D20">
-        <v>0.3105014145500897</v>
+        <v>1588</v>
       </c>
       <c r="E20">
-        <v>1839</v>
+        <v>0.8547172704374322</v>
       </c>
       <c r="F20">
-        <v>47.56623456817225</v>
+        <v>43.9199033500049</v>
       </c>
       <c r="G20">
-        <v>0.6700603318250377</v>
+        <v>0.7186907020872866</v>
       </c>
       <c r="H20">
-        <v>49.54414529454272</v>
+        <v>61.57396702800582</v>
       </c>
       <c r="I20">
-        <v>47.09532273970827</v>
+        <v>31.96266538073381</v>
       </c>
       <c r="J20">
-        <v>0.9662860250135944</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>-0.004254390664016124</v>
+      </c>
+      <c r="K20">
+        <v>161.8822509939086</v>
+      </c>
+      <c r="L20">
+        <v>0.9540302267002518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1049,31 +1175,37 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>3754</v>
+        <v>1337</v>
       </c>
       <c r="D21">
-        <v>0.803943026481627</v>
+        <v>1421</v>
       </c>
       <c r="E21">
-        <v>4127</v>
+        <v>0.8038612550559119</v>
       </c>
       <c r="F21">
-        <v>69.13567278139269</v>
+        <v>41.25919620291836</v>
       </c>
       <c r="G21">
-        <v>0.5590469099032018</v>
+        <v>0.6403256704980843</v>
       </c>
       <c r="H21">
-        <v>95.65366522018603</v>
+        <v>54.17554532733311</v>
       </c>
       <c r="I21">
-        <v>56.88583948881321</v>
+        <v>32.22452710824884</v>
       </c>
       <c r="J21">
-        <v>0.909619578386237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>-1.380968247070506</v>
+      </c>
+      <c r="K21">
+        <v>153.4030662740799</v>
+      </c>
+      <c r="L21">
+        <v>0.9408866995073891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1081,31 +1213,37 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>2660</v>
+        <v>2568</v>
       </c>
       <c r="D22">
-        <v>0.514491573061424</v>
+        <v>2679</v>
       </c>
       <c r="E22">
-        <v>2734</v>
+        <v>0.7835125098613577</v>
       </c>
       <c r="F22">
-        <v>58.19636748969418</v>
+        <v>57.1811083390301</v>
       </c>
       <c r="G22">
-        <v>0.692167577413479</v>
+        <v>0.6921832884097036</v>
       </c>
       <c r="H22">
-        <v>63.38745683206415</v>
+        <v>73.64009686430033</v>
       </c>
       <c r="I22">
-        <v>54.35445487725548</v>
+        <v>45.75818962997734</v>
       </c>
       <c r="J22">
-        <v>0.9729334308705194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0.5338287596647128</v>
+      </c>
+      <c r="K22">
+        <v>207.3380951166243</v>
+      </c>
+      <c r="L22">
+        <v>0.9585666293393057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1113,31 +1251,37 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>1513</v>
+        <v>2966</v>
       </c>
       <c r="D23">
-        <v>0.8552654858556199</v>
+        <v>3201</v>
       </c>
       <c r="E23">
-        <v>1588</v>
+        <v>0.7834500885302863</v>
       </c>
       <c r="F23">
-        <v>43.89090374080148</v>
+        <v>61.45265242188081</v>
       </c>
       <c r="G23">
-        <v>0.717741935483871</v>
+        <v>0.7174649250120948</v>
       </c>
       <c r="H23">
-        <v>61.60451918973187</v>
+        <v>79.64859197555444</v>
       </c>
       <c r="I23">
-        <v>31.92285011466412</v>
+        <v>49.49799276910276</v>
       </c>
       <c r="J23">
-        <v>0.9527707808564232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>-1.498954541828008</v>
+      </c>
+      <c r="K23">
+        <v>224.4091629284898</v>
+      </c>
+      <c r="L23">
+        <v>0.9265854420493596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1145,31 +1289,37 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>1342</v>
+        <v>3072</v>
       </c>
       <c r="D24">
-        <v>0.8063442548411029</v>
+        <v>3245</v>
       </c>
       <c r="E24">
-        <v>1424</v>
+        <v>0.5277785731510912</v>
       </c>
       <c r="F24">
-        <v>41.3362730423848</v>
+        <v>62.54112152357375</v>
       </c>
       <c r="G24">
-        <v>0.6539961013645225</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="H24">
-        <v>54.42506649785188</v>
+        <v>69.26997044960167</v>
       </c>
       <c r="I24">
-        <v>32.18951418705714</v>
+        <v>58.83666586910432</v>
       </c>
       <c r="J24">
-        <v>0.9424157303370787</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>1.544994639275377</v>
+      </c>
+      <c r="K24">
+        <v>220.4091629284898</v>
+      </c>
+      <c r="L24">
+        <v>0.9466872110939908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1177,31 +1327,37 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>2562</v>
+        <v>2570</v>
       </c>
       <c r="D25">
-        <v>0.7841924834438476</v>
+        <v>2670</v>
       </c>
       <c r="E25">
-        <v>2678</v>
+        <v>0.4647846822826295</v>
       </c>
       <c r="F25">
-        <v>57.11426891426946</v>
+        <v>57.20337079202036</v>
       </c>
       <c r="G25">
-        <v>0.690566037735849</v>
+        <v>0.7787878787878788</v>
       </c>
       <c r="H25">
-        <v>73.56965444826905</v>
+        <v>61.64382538508009</v>
       </c>
       <c r="I25">
-        <v>45.65126879010342</v>
+        <v>54.58090641200477</v>
       </c>
       <c r="J25">
-        <v>0.9566840926064227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>-0.944662096290414</v>
+      </c>
+      <c r="K25">
+        <v>199.6396103067893</v>
+      </c>
+      <c r="L25">
+        <v>0.9625468164794008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1209,31 +1365,37 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>2966</v>
+        <v>2315</v>
       </c>
       <c r="D26">
-        <v>0.7830180596406822</v>
+        <v>2501</v>
       </c>
       <c r="E26">
-        <v>3231</v>
+        <v>0.7897619118820653</v>
       </c>
       <c r="F26">
-        <v>61.45265242188081</v>
+        <v>54.2913395125033</v>
       </c>
       <c r="G26">
-        <v>0.7041785375118709</v>
+        <v>0.5957282552753475</v>
       </c>
       <c r="H26">
-        <v>79.6577657860534</v>
+        <v>71.97064579423093</v>
       </c>
       <c r="I26">
-        <v>49.54704824552357</v>
+        <v>44.14776576664192</v>
       </c>
       <c r="J26">
-        <v>0.917982048901269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>-0.9068206088015297</v>
+      </c>
+      <c r="K26">
+        <v>208.0660171779821</v>
+      </c>
+      <c r="L26">
+        <v>0.9256297481007597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1241,31 +1403,37 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>3073</v>
+        <v>3294</v>
       </c>
       <c r="D27">
-        <v>0.527275862181753</v>
+        <v>3462</v>
       </c>
       <c r="E27">
-        <v>3245</v>
+        <v>0.741710599465267</v>
       </c>
       <c r="F27">
-        <v>62.55129991431956</v>
+        <v>64.76149365446743</v>
       </c>
       <c r="G27">
-        <v>0.7061121323529411</v>
+        <v>0.7768867924528302</v>
       </c>
       <c r="H27">
-        <v>69.266746421037</v>
+        <v>80.87785041828235</v>
       </c>
       <c r="I27">
-        <v>58.85554990076446</v>
+        <v>54.24639594691626</v>
       </c>
       <c r="J27">
-        <v>0.9469953775038521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>0.008902761042766445</v>
+      </c>
+      <c r="K27">
+        <v>233.3380951166243</v>
+      </c>
+      <c r="L27">
+        <v>0.951473136915078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1273,31 +1441,37 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>2570</v>
+        <v>1998</v>
       </c>
       <c r="D28">
-        <v>0.4644158328637736</v>
+        <v>2107</v>
       </c>
       <c r="E28">
-        <v>2670</v>
+        <v>0.631392260409162</v>
       </c>
       <c r="F28">
-        <v>57.20337079202036</v>
+        <v>50.43741280419581</v>
       </c>
       <c r="G28">
-        <v>0.7787878787878788</v>
+        <v>0.7756211180124224</v>
       </c>
       <c r="H28">
-        <v>61.6466097164602</v>
+        <v>58.11417820139933</v>
       </c>
       <c r="I28">
-        <v>54.5953016889425</v>
+        <v>45.06543053494457</v>
       </c>
       <c r="J28">
-        <v>0.9625468164794008</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0.2079877010424448</v>
+      </c>
+      <c r="K28">
+        <v>179.7817459305202</v>
+      </c>
+      <c r="L28">
+        <v>0.9482676791646891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1305,124 +1479,34 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>2315</v>
+        <v>2201</v>
       </c>
       <c r="D29">
-        <v>0.7897619118820653</v>
+        <v>2277</v>
       </c>
       <c r="E29">
-        <v>2501</v>
+        <v>0.850514950583106</v>
       </c>
       <c r="F29">
-        <v>54.2913395125033</v>
+        <v>52.93770147977803</v>
       </c>
       <c r="G29">
-        <v>0.5957282552753475</v>
+        <v>0.7730944854232525</v>
       </c>
       <c r="H29">
-        <v>71.97064579423093</v>
+        <v>73.32197653698172</v>
       </c>
       <c r="I29">
-        <v>44.14776576664192</v>
+        <v>38.56375743205602</v>
       </c>
       <c r="J29">
-        <v>0.9256297481007597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>3291</v>
-      </c>
-      <c r="D30">
-        <v>0.7421190245470884</v>
-      </c>
-      <c r="E30">
-        <v>3460</v>
-      </c>
-      <c r="F30">
-        <v>64.73199627482086</v>
-      </c>
-      <c r="G30">
-        <v>0.7761792452830188</v>
-      </c>
-      <c r="H30">
-        <v>80.85069560804898</v>
-      </c>
-      <c r="I30">
-        <v>54.1916437891397</v>
-      </c>
-      <c r="J30">
-        <v>0.9511560693641619</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>1997</v>
-      </c>
-      <c r="D31">
-        <v>0.6313987095543498</v>
-      </c>
-      <c r="E31">
-        <v>2104</v>
-      </c>
-      <c r="F31">
-        <v>50.42478924929801</v>
-      </c>
-      <c r="G31">
-        <v>0.7752329192546584</v>
-      </c>
-      <c r="H31">
-        <v>58.07722665441724</v>
-      </c>
-      <c r="I31">
-        <v>45.03647099017478</v>
-      </c>
-      <c r="J31">
-        <v>0.9491444866920152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>2195</v>
-      </c>
-      <c r="D32">
-        <v>0.8513019515498177</v>
-      </c>
-      <c r="E32">
-        <v>2273</v>
-      </c>
-      <c r="F32">
-        <v>52.86549726138668</v>
-      </c>
-      <c r="G32">
-        <v>0.7709870038637162</v>
-      </c>
-      <c r="H32">
-        <v>73.29779446630968</v>
-      </c>
-      <c r="I32">
-        <v>38.4575993589051</v>
-      </c>
-      <c r="J32">
-        <v>0.9656841179058513</v>
+        <v>0.1046744641285079</v>
+      </c>
+      <c r="K29">
+        <v>190.2670273047588</v>
+      </c>
+      <c r="L29">
+        <v>0.9666227492314449</v>
       </c>
     </row>
   </sheetData>
